--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_QC.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_QC.xlsx
@@ -2,22 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0E02C2-CD66-4A91-962F-E3AFBD2DC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D484CB9-FCE2-418B-B98F-D6FD5D3CDD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{9F14A3BA-F18D-47E1-BBB1-4822C43DC190}"/>
+    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{9AA98CBA-C4F3-4CCB-A2B9-37161529B8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -83,13 +80,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.QC.Natural Gas Extraction.Natural Gas.Exploration and Production.Conventional Production</t>
+    <t>CIMS.CAN.QC.Natural Gas Production.Natural Gas.Exploration and Production.Conventional Production</t>
   </si>
   <si>
     <t>QC</t>
   </si>
   <si>
-    <t>Natural Gas Extraction</t>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>Conventional Production</t>
@@ -110,7 +107,7 @@
     <t>Raw NG aggresive LDAR</t>
   </si>
   <si>
-    <t>CIMS.CAN.QC.Natural Gas Extraction.Direct Heat</t>
+    <t>CIMS.CAN.QC.Natural Gas Production.Direct Heat</t>
   </si>
   <si>
     <t>Direct Heat</t>
@@ -122,7 +119,7 @@
     <t>Boilers improved thermal eff CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.QC.Natural Gas Extraction.Direct Drive Small</t>
+    <t>CIMS.CAN.QC.Natural Gas Production.Direct Drive Small</t>
   </si>
   <si>
     <t>Direct Drive Small</t>
@@ -1363,19 +1360,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1694,7 +1678,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBD1F9B-BE04-4E88-BA75-623CE3DD1A6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49405572-28B7-40FF-9D5A-9A72D0D9CA57}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2359,49 +2344,48 @@
       <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="e">
-        <f>[1]BC!$M$29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N11" t="e">
+      <c r="M11">
+        <v>400000000</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W11" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>400000000</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -2429,49 +2413,48 @@
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="M12" t="e">
-        <f>[1]BC!$M$30</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N12" t="e">
+      <c r="M12">
+        <v>400000000</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W12" t="e">
+        <v>400000000</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>400000000</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
